--- a/public/template/Raw Data.xlsx
+++ b/public/template/Raw Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\CAMR-Robinsons_Laravel-main\CAMR-Robinsons_Laravel-main\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baluy\Documents\GitHub\camr_pjc\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED0C78-3E9F-4A42-81D5-D2AA1459C0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C46F7E9-E711-473A-B420-E2D474DC94D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1260" windowWidth="24240" windowHeight="13290" xr2:uid="{0125C2CC-56FE-4ABB-A7E4-A48064F91EF6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tenant Name</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Building Description</t>
+  </si>
+  <si>
+    <t>Usage Type</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,6 +132,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -449,7 +455,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="1" sqref="A5 C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,6 +523,11 @@
       </c>
       <c r="B8" s="1"/>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
